--- a/report_final.xlsx
+++ b/report_final.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="report_final" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">report_final!$A$1:$R$47</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="162">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -79,14 +76,15 @@
     <t xml:space="preserve">weighted avg_f1</t>
   </si>
   <si>
-    <t xml:space="preserve">Transformer</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">FastText_gp_raw_300_sentiment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -94,8 +92,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -104,6 +103,66 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9286    0.9363    0.9324       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8808    0.8673    0.8740       196
+    accuracy                         0.9120       557
+   macro avg     0.9047    0.9018    0.9032       557
+weighted avg     0.9118    0.9120    0.9119       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['338', '23'], ['26', '170']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.9456    0.9141    0.9296       361
           </t>
@@ -111,8 +170,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -121,6 +181,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.8510    0.9031    0.8762       196
     accuracy                         0.9102       557
@@ -133,14 +194,15 @@
     <t xml:space="preserve">[['330', '31'], ['19', '177']]</t>
   </si>
   <si>
-    <t xml:space="preserve">FastText_gp_raw_svd_100</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">FastText_gp_pca_300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -148,8 +210,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -158,6 +221,184 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9077    0.9529    0.9297       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9045    0.8214    0.8610       196
+    accuracy                         0.9066       557
+   macro avg     0.9061    0.8872    0.8953       557
+weighted avg     0.9065    0.9066    0.9055       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['344', '17'], ['35', '161']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_raw_100_sentiment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9280    0.9280    0.9280       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8673    0.8673    0.8673       196
+    accuracy                         0.9066       557
+   macro avg     0.8977    0.8977    0.8977       557
+weighted avg     0.9066    0.9066    0.9066       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['335', '26'], ['26', '170']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_raw_100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9300    0.9197    0.9248       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8550    0.8724    0.8636       196
+    accuracy                         0.9031       557
+   macro avg     0.8925    0.8961    0.8942       557
+weighted avg     0.9036    0.9031    0.9033       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['332', '29'], ['25', '171']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_raw_svd_100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.9160    0.9363    0.9260       361
           </t>
@@ -165,8 +406,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -175,6 +417,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.8777    0.8418    0.8594       196
     accuracy                         0.9031       557
@@ -187,14 +430,15 @@
     <t xml:space="preserve">[['338', '23'], ['31', '165']]</t>
   </si>
   <si>
-    <t xml:space="preserve">FastText_gp_ldia_100_sentiment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">FastText_gp_raw_pca_100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -202,8 +446,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -212,168 +457,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.9298    0.9169    0.9233       361
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8507    0.8724    0.8615       196
-    accuracy                         0.9013       557
-   macro avg     0.8903    0.8947    0.8924       557
-weighted avg     0.9020    0.9013    0.9015       557
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[['331', '30'], ['25', '171']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_ldia_300_sentiment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              precision    recall  f1-score   support
-         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">非谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.9227    0.9252    0.9239       361
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8615    0.8571    0.8593       196
-    accuracy                         0.9013       557
-   macro avg     0.8921    0.8912    0.8916       557
-weighted avg     0.9011    0.9013    0.9012       557
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[['334', '27'], ['28', '168']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_ldia_100</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              precision    recall  f1-score   support
-         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">非谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.9395    0.9030    0.9209       361
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8333    0.8929    0.8621       196
-    accuracy                         0.8995       557
-   macro avg     0.8864    0.8980    0.8915       557
-weighted avg     0.9021    0.8995    0.9002       557
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[['326', '35'], ['21', '175']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_raw_pca_100</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              precision    recall  f1-score   support
-         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">非谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.9158    0.9335    0.9246       361
           </t>
@@ -381,8 +465,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -391,6 +476,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.8730    0.8418    0.8571       196
     accuracy                         0.9013       557
@@ -403,14 +489,15 @@
     <t xml:space="preserve">[['337', '24'], ['31', '165']]</t>
   </si>
   <si>
-    <t xml:space="preserve">FastText_gp_raw_pca_100_sentiment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">FastText_gp_raw_svd_300_sentiment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -418,8 +505,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -428,6 +516,246 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8943    0.9612    0.9266       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9172    0.7908    0.8493       196
+    accuracy                         0.9013       557
+   macro avg     0.9057    0.8760    0.8879       557
+weighted avg     0.9024    0.9013    0.8994       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['347', '14'], ['41', '155']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_svd_300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9026    0.9501    0.9258       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8983    0.8112    0.8525       196
+    accuracy                         0.9013       557
+   macro avg     0.9005    0.8807    0.8892       557
+weighted avg     0.9011    0.9013    0.9000       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['343', '18'], ['37', '159']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_100_sentiment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9024    0.9474    0.9243       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8933    0.8112    0.8503       196
+    accuracy                         0.8995       557
+   macro avg     0.8978    0.8793    0.8873       557
+weighted avg     0.8992    0.8995    0.8983       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['342', '19'], ['37', '159']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_300_sentiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_pca_100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9045    0.9446    0.9241       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8889    0.8163    0.8511       196
+    accuracy                         0.8995       557
+   macro avg     0.8967    0.8805    0.8876       557
+weighted avg     0.8990    0.8995    0.8984       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['341', '20'], ['36', '160']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_raw_pca_100_sentiment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.9133    0.9335    0.9233       361
           </t>
@@ -435,8 +763,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -445,6 +774,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.8723    0.8367    0.8542       196
     accuracy                         0.8995       557
@@ -465,6 +795,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -472,8 +803,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -482,6 +814,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.9088    0.9391    0.9237       361
           </t>
@@ -489,8 +822,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -499,6 +833,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.8804    0.8265    0.8526       196
     accuracy                         0.8995       557
@@ -511,14 +846,18 @@
     <t xml:space="preserve">[['339', '22'], ['34', '162']]</t>
   </si>
   <si>
-    <t xml:space="preserve">FastText_gp_raw_svd_300_sentiment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">FastText_gp_svd_100_sentiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_ldia_100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -526,8 +865,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -536,15 +876,17 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8943    0.9612    0.9266       361
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9246    0.9169    0.9207       361
           </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -553,26 +895,28 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.9172    0.7908    0.8493       196
-    accuracy                         0.9013       557
-   macro avg     0.9057    0.8760    0.8879       557
-weighted avg     0.9024    0.9013    0.8994       557
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8492    0.8622    0.8557       196
+    accuracy                         0.8977       557
+   macro avg     0.8869    0.8896    0.8882       557
+weighted avg     0.8981    0.8977    0.8978       557
 </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[['347', '14'], ['41', '155']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">[['331', '30'], ['27', '169']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_ldia_300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -580,8 +924,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -590,6 +935,243 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9318    0.9086    0.9201       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8390    0.8776    0.8579       196
+    accuracy                         0.8977       557
+   macro avg     0.8854    0.8931    0.8890       557
+weighted avg     0.8992    0.8977    0.8982       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['328', '33'], ['24', '172']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_pca_100_sentiment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9043    0.9418    0.9227       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8840    0.8163    0.8488       196
+    accuracy                         0.8977       557
+   macro avg     0.8941    0.8791    0.8857       557
+weighted avg     0.8971    0.8977    0.8967       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['340', '21'], ['36', '160']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_raw_ldia_100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9064    0.9391    0.9224       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8798    0.8214    0.8496       196
+    accuracy                         0.8977       557
+   macro avg     0.8931    0.8802    0.8860       557
+weighted avg     0.8970    0.8977    0.8968       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['339', '22'], ['35', '161']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_svd_100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9106    0.9307    0.9205       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8670    0.8316    0.8490       196
+    accuracy                         0.8959       557
+   macro avg     0.8888    0.8812    0.8848       557
+weighted avg     0.8952    0.8959    0.8954       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['336', '25'], ['33', '163']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.9548    0.8781    0.9149       361
           </t>
@@ -597,8 +1179,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -607,6 +1190,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.8044    0.9235    0.8599       196
     accuracy                         0.8941       557
@@ -619,14 +1203,15 @@
     <t xml:space="preserve">[['317', '44'], ['15', '181']]</t>
   </si>
   <si>
-    <t xml:space="preserve">FastText_gp_raw_ldia_100</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">FastText_gp_ldia_100_sentiment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -634,8 +1219,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -644,15 +1230,17 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.9064    0.9391    0.9224       361
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9242    0.9114    0.9177       361
           </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -661,26 +1249,28 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8798    0.8214    0.8496       196
-    accuracy                         0.8977       557
-   macro avg     0.8931    0.8802    0.8860       557
-weighted avg     0.8970    0.8977    0.8968       557
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8408    0.8622    0.8514       196
+    accuracy                         0.8941       557
+   macro avg     0.8825    0.8868    0.8845       557
+weighted avg     0.8948    0.8941    0.8944       557
 </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[['339', '22'], ['35', '161']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_svd_300_sentiment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">[['329', '32'], ['27', '169']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_raw_ldia_100_sentiment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -688,8 +1278,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -698,114 +1289,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.9019    0.9418    0.9214       361
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8833    0.8112    0.8457       196
-    accuracy                         0.8959       557
-   macro avg     0.8926    0.8765    0.8836       557
-weighted avg     0.8953    0.8959    0.8948       557
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[['340', '21'], ['37', '159']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_raw_sentiment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              precision    recall  f1-score   support
-         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">非谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8932    0.9501    0.9208       361
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8960    0.7908    0.8401       196
-    accuracy                         0.8941       557
-   macro avg     0.8946    0.8705    0.8805       557
-weighted avg     0.8942    0.8941    0.8924       557
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[['343', '18'], ['41', '155']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_raw_ldia_100_sentiment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              precision    recall  f1-score   support
-         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">非谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.9144    0.9169    0.9156       361
           </t>
@@ -813,8 +1297,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -823,6 +1308,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.8462    0.8418    0.8440       196
     accuracy                         0.8905       557
@@ -835,14 +1321,15 @@
     <t xml:space="preserve">[['331', '30'], ['31', '165']]</t>
   </si>
   <si>
-    <t xml:space="preserve">FastText_gp_pca_100</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">FastText_gp_raw_pca_300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -850,8 +1337,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -860,15 +1348,17 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8950    0.9446    0.9191       361
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8788    0.9640    0.9194       361
           </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -877,26 +1367,28 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8864    0.7959    0.8387       196
-    accuracy                         0.8923       557
-   macro avg     0.8907    0.8703    0.8789       557
-weighted avg     0.8920    0.8923    0.8908       557
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9193    0.7551    0.8291       196
+    accuracy                         0.8905       557
+   macro avg     0.8990    0.8595    0.8743       557
+weighted avg     0.8930    0.8905    0.8876       557
 </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[['341', '20'], ['40', '156']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_sentiment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">[['348', '13'], ['48', '148']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -904,8 +1396,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -914,15 +1407,17 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.9598    0.8587    0.9064       361
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9308    0.8947    0.9124       361
           </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -931,26 +1426,28 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.7821    0.9337    0.8512       196
-    accuracy                         0.8851       557
-   macro avg     0.8709    0.8962    0.8788       557
-weighted avg     0.8972    0.8851    0.8870       557
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.8190    0.8776    0.8473       196
+    accuracy                         0.8887       557
+   macro avg     0.8749    0.8861    0.8799       557
+weighted avg     0.8915    0.8887    0.8895       557
 </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[['310', '51'], ['13', '183']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_pca_300_sentiment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">[['323', '38'], ['24', '172']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_raw_300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -958,8 +1455,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -968,114 +1466,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8909    0.9501    0.9196       361
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8953    0.7857    0.8370       196
-    accuracy                         0.8923       557
-   macro avg     0.8931    0.8679    0.8783       557
-weighted avg     0.8925    0.8923    0.8905       557
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[['343', '18'], ['42', '154']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_svd_100</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              precision    recall  f1-score   support
-         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">非谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8947    0.9418    0.9177       361
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8814    0.7959    0.8365       196
-    accuracy                         0.8905       557
-   macro avg     0.8880    0.8689    0.8771       557
-weighted avg     0.8900    0.8905    0.8891       557
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[['340', '21'], ['40', '156']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_raw</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              precision    recall  f1-score   support
-         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">非谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.8945    0.9391    0.9162       361
           </t>
@@ -1083,8 +1474,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -1093,6 +1485,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.8764    0.7959    0.8342       196
     accuracy                         0.8887       557
@@ -1105,14 +1498,15 @@
     <t xml:space="preserve">[['339', '22'], ['40', '156']]</t>
   </si>
   <si>
-    <t xml:space="preserve">FastText_gp_ldia_300</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">FastText_gp_raw_pca_300_sentiment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -1120,8 +1514,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -1130,114 +1525,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.9005    0.9280    0.9141       361
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8595    0.8112    0.8346       196
-    accuracy                         0.8869       557
-   macro avg     0.8800    0.8696    0.8743       557
-weighted avg     0.8861    0.8869    0.8861       557
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[['335', '26'], ['37', '159']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_raw_pca_300</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              precision    recall  f1-score   support
-         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">非谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8788    0.9640    0.9194       361
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.9193    0.7551    0.8291       196
-    accuracy                         0.8905       557
-   macro avg     0.8990    0.8595    0.8743       557
-weighted avg     0.8930    0.8905    0.8876       557
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[['348', '13'], ['48', '148']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_raw_pca_300_sentiment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              precision    recall  f1-score   support
-         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">非谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.8785    0.9612    0.9180       361
           </t>
@@ -1245,8 +1533,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -1255,6 +1544,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.9136    0.7551    0.8268       196
     accuracy                         0.8887       557
@@ -1270,14 +1560,15 @@
     <t xml:space="preserve">FastText_gp_raw_svd_300</t>
   </si>
   <si>
-    <t xml:space="preserve">FastText_gp_pca_100_sentiment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">FastText_gp_svd_300_sentiment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -1285,8 +1576,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -1295,15 +1587,17 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8747    0.9668    0.9184       361
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9515    0.8698    0.9088       361
           </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -1312,29 +1606,28 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.9241    0.7449    0.8249       196
-    accuracy                         0.8887       557
-   macro avg     0.8994    0.8558    0.8716       557
-weighted avg     0.8921    0.8887    0.8855       557
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.7930    0.9184    0.8511       196
+    accuracy                         0.8869       557
+   macro avg     0.8722    0.8941    0.8799       557
+weighted avg     0.8957    0.8869    0.8885       557
 </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[['349', '12'], ['50', '146']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_pca_300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_svd_100_sentiment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">[['314', '47'], ['16', '180']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_raw_ldia_300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -1342,8 +1635,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -1352,63 +1646,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.8703    0.9668    0.9160       361
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.9231    0.7347    0.8182       196
-    accuracy                         0.8851       557
-   macro avg     0.8967    0.8507    0.8671       557
-weighted avg     0.8889    0.8851    0.8816       557
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[['349', '12'], ['52', '144']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_svd_300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastText_gp_raw_ldia_300</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              precision    recall  f1-score   support
-         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">非谣言     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.9104    0.9003    0.9053       361
           </t>
@@ -1416,8 +1654,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -1426,6 +1665,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.8200    0.8367    0.8283       196
     accuracy                         0.8779       557
@@ -1446,6 +1686,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              precision    recall  f1-score   support
          </t>
@@ -1453,8 +1694,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">非谣言     </t>
     </r>
@@ -1463,6 +1705,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.9122    0.8920    0.9020       361
           </t>
@@ -1470,8 +1713,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">谣言     </t>
     </r>
@@ -1480,6 +1724,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.8088    0.8418    0.8250       196
     accuracy                         0.8743       557
@@ -1490,6 +1735,124 @@
   </si>
   <si>
     <t xml:space="preserve">[['322', '39'], ['31', '165']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_pca_300_sentiment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9589    0.8393    0.8951       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.7593    0.9337    0.8375       196
+    accuracy                         0.8725       557
+   macro avg     0.8591    0.8865    0.8663       557
+weighted avg     0.8887    0.8725    0.8749       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['303', '58'], ['13', '183']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastText_gp_ldia_300_sentiment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              precision    recall  f1-score   support
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">非谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.9140    0.8837    0.8986       361
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">谣言     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.7981    0.8469    0.8218       196
+    accuracy                         0.8707       557
+   macro avg     0.8561    0.8653    0.8602       557
+weighted avg     0.8732    0.8707    0.8716       557
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[['319', '42'], ['30', '166']]</t>
   </si>
   <si>
     <t xml:space="preserve">pca_300</t>
@@ -1522,6 +1885,21 @@
     <t xml:space="preserve">[['254', '115'], ['0', '188']]</t>
   </si>
   <si>
+    <t xml:space="preserve">pca_300_sentiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+   non-rumor     0.9133    0.7425    0.8191       369
+       rumor     0.6304    0.8617    0.7281       188
+    accuracy                         0.7828       557
+   macro avg     0.7718    0.8021    0.7736       557
+weighted avg     0.8178    0.7828    0.7884       557
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[['274', '95'], ['26', '162']]</t>
+  </si>
+  <si>
     <t xml:space="preserve">pca_100</t>
   </si>
   <si>
@@ -1537,21 +1915,6 @@
     <t xml:space="preserve">[['259', '110'], ['13', '175']]</t>
   </si>
   <si>
-    <t xml:space="preserve">pca_300_sentiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              precision    recall  f1-score   support
-   non-rumor     0.9133    0.7425    0.8191       369
-       rumor     0.6304    0.8617    0.7281       188
-    accuracy                         0.7828       557
-   macro avg     0.7718    0.8021    0.7736       557
-weighted avg     0.8178    0.7828    0.7884       557
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[['274', '95'], ['26', '162']]</t>
-  </si>
-  <si>
     <t xml:space="preserve">svd_300</t>
   </si>
   <si>
@@ -1567,6 +1930,21 @@
     <t xml:space="preserve">[['262', '107'], ['18', '170']]</t>
   </si>
   <si>
+    <t xml:space="preserve">pca_100_sentiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+   non-rumor     0.9027    0.7290    0.8066       369
+       rumor     0.6139    0.8457    0.7114       188
+    accuracy                         0.7684       557
+   macro avg     0.7583    0.7874    0.7590       557
+weighted avg     0.8052    0.7684    0.7745       557
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[['269', '100'], ['29', '159']]</t>
+  </si>
+  <si>
     <t xml:space="preserve">fastText_lda_300</t>
   </si>
   <si>
@@ -1582,19 +1960,19 @@
     <t xml:space="preserve">[['242', '127'], ['3', '185']]</t>
   </si>
   <si>
-    <t xml:space="preserve">pca_100_sentiment</t>
+    <t xml:space="preserve">svd_100_sentiment</t>
   </si>
   <si>
     <t xml:space="preserve">              precision    recall  f1-score   support
-   non-rumor     0.9027    0.7290    0.8066       369
-       rumor     0.6139    0.8457    0.7114       188
-    accuracy                         0.7684       557
-   macro avg     0.7583    0.7874    0.7590       557
-weighted avg     0.8052    0.7684    0.7745       557
+   non-rumor     0.8653    0.6965    0.7718       369
+       rumor     0.5692    0.7872    0.6607       188
+    accuracy                         0.7271       557
+   macro avg     0.7173    0.7419    0.7162       557
+weighted avg     0.7654    0.7271    0.7343       557
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[['269', '100'], ['29', '159']]</t>
+    <t xml:space="preserve">[['257', '112'], ['40', '148']]</t>
   </si>
   <si>
     <t xml:space="preserve">svd_300_sentiment</t>
@@ -1610,21 +1988,6 @@
   </si>
   <si>
     <t xml:space="preserve">[['231', '138'], ['16', '172']]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svd_100_sentiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              precision    recall  f1-score   support
-   non-rumor     0.8653    0.6965    0.7718       369
-       rumor     0.5692    0.7872    0.6607       188
-    accuracy                         0.7271       557
-   macro avg     0.7173    0.7419    0.7162       557
-weighted avg     0.7654    0.7271    0.7343       557
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[['257', '112'], ['40', '148']]</t>
   </si>
   <si>
     <t xml:space="preserve">svd_100</t>
@@ -1757,31 +2120,36 @@
   <fonts count="5">
     <font>
       <sz val="10"/>
-      <name val="Arial Unicode MS"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1790,26 +2158,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF800080"/>
-        <bgColor rgb="FF800080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF4000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF4000"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1847,7 +2197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1856,32 +2206,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1893,14 +2227,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF800080"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1915,119 +2242,41 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF4000"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47:R47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.91"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="10.77"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="7.85"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="6.86"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.93"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="18.36"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="20.41"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="0" width="17.49"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="0" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.27"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="20.2"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="7.44"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="8.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="8.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2087,483 +2336,483 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0.9456</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0.9141</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0.9296</v>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="D2" s="0" t="n">
+        <v>0.9286</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.9363</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.9324</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>361</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0.851</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0.9031</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0.8762</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="H2" s="0" t="n">
+        <v>0.8808</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.8673</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>0.9102</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>0.8983</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0.9086</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>0.9029</v>
+      <c r="L2" s="0" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0.9047</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0.9018</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0.9032</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0.9123</v>
+        <v>0.9118</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0.9102</v>
+        <v>0.912</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>0.9108</v>
+        <v>0.9119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.916</v>
+        <v>0.9456</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.9363</v>
+        <v>0.9141</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.926</v>
+        <v>0.9296</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.8777</v>
+        <v>0.851</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.8418</v>
+        <v>0.9031</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.8594</v>
+        <v>0.8762</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="L3" s="5" t="n">
-        <v>0.9031</v>
+      <c r="L3" s="0" t="n">
+        <v>0.9102</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.8968</v>
+        <v>0.8983</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.8891</v>
+        <v>0.9086</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.8927</v>
+        <v>0.9029</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.9025</v>
+        <v>0.9123</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0.9031</v>
+        <v>0.9102</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>0.9026</v>
+        <v>0.9108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.9298</v>
+        <v>0.9077</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.9169</v>
+        <v>0.9529</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.9233</v>
+        <v>0.9297</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.8507</v>
+        <v>0.9045</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.8724</v>
+        <v>0.8214</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.8615</v>
+        <v>0.861</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.9013</v>
+        <v>0.9066</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.8903</v>
+        <v>0.9061</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.8947</v>
+        <v>0.8872</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.8924</v>
+        <v>0.8953</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.902</v>
+        <v>0.9065</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>0.9013</v>
+        <v>0.9066</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>0.9015</v>
+        <v>0.9055</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.9227</v>
+        <v>0.928</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.9252</v>
+        <v>0.928</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.9239</v>
+        <v>0.928</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.8615</v>
+        <v>0.8673</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.8571</v>
+        <v>0.8673</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.8593</v>
+        <v>0.8673</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.9013</v>
+        <v>0.9066</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.8921</v>
+        <v>0.8977</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.8912</v>
+        <v>0.8977</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.8916</v>
+        <v>0.8977</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.9011</v>
+        <v>0.9066</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>0.9013</v>
+        <v>0.9066</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>0.9012</v>
+        <v>0.9066</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0.9395</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.903</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.9209</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="D6" s="3" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0.9197</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.9248</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>361</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0.8929</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>0.8621</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="H6" s="3" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0.8724</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0.8636</v>
+      </c>
+      <c r="K6" s="3" t="n">
         <v>196</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>0.8995</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0.8864</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0.8915</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>0.9021</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>0.8995</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>0.9002</v>
+      <c r="L6" s="3" t="n">
+        <v>0.9031</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0.8925</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0.8961</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>0.8942</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0.9036</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>0.9031</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>0.9033</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.9158</v>
+        <v>0.916</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0.9335</v>
+        <v>0.9363</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.9246</v>
+        <v>0.926</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.873</v>
+        <v>0.8777</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0.8418</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.8571</v>
+        <v>0.8594</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.9013</v>
+        <v>0.9031</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.8944</v>
+        <v>0.8968</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.8877</v>
+        <v>0.8891</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.8908</v>
+        <v>0.8927</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.9007</v>
+        <v>0.9025</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>0.9013</v>
+        <v>0.9031</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>0.9008</v>
+        <v>0.9026</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.9133</v>
+        <v>0.9158</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0.9335</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.9233</v>
+        <v>0.9246</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.8723</v>
+        <v>0.873</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.8367</v>
+        <v>0.8418</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.8542</v>
+        <v>0.8571</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.8995</v>
+        <v>0.9013</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.8928</v>
+        <v>0.8944</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.8851</v>
+        <v>0.8877</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.8887</v>
+        <v>0.8908</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.8989</v>
+        <v>0.9007</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>0.8995</v>
+        <v>0.9013</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>0.899</v>
+        <v>0.9008</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.9088</v>
+        <v>0.8943</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0.9391</v>
+        <v>0.9612</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.9237</v>
+        <v>0.9266</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.8804</v>
+        <v>0.9172</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.8265</v>
+        <v>0.7908</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.8526</v>
+        <v>0.8493</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.8995</v>
+        <v>0.9013</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.8946</v>
+        <v>0.9057</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.8828</v>
+        <v>0.876</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.8882</v>
+        <v>0.8879</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.8988</v>
+        <v>0.9024</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>0.8995</v>
+        <v>0.9013</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>0.8987</v>
+        <v>0.8994</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.8943</v>
+        <v>0.9026</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0.9612</v>
+        <v>0.9501</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.9266</v>
+        <v>0.9258</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.9172</v>
+        <v>0.8983</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.7908</v>
+        <v>0.8112</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.8493</v>
+        <v>0.8525</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>196</v>
@@ -2572,2116 +2821,2321 @@
         <v>0.9013</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.9057</v>
+        <v>0.9005</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.876</v>
+        <v>0.8807</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.8879</v>
+        <v>0.8892</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.9024</v>
+        <v>0.9011</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>0.9013</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>0.8994</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="6" t="n">
-        <v>0.9548</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>0.8781</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>0.9149</v>
-      </c>
-      <c r="G11" s="6" t="n">
+      <c r="D11" s="0" t="n">
+        <v>0.9024</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.9474</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.9243</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>361</v>
       </c>
-      <c r="H11" s="6" t="n">
-        <v>0.8044</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>0.9235</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>0.8599</v>
-      </c>
-      <c r="K11" s="6" t="n">
+      <c r="H11" s="0" t="n">
+        <v>0.8933</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.8112</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.8503</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="L11" s="6" t="n">
-        <v>0.8941</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>0.8796</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>0.9008</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>0.8874</v>
+      <c r="L11" s="0" t="n">
+        <v>0.8995</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.8978</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.8793</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.8873</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.9019</v>
+        <v>0.8992</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>0.8941</v>
+        <v>0.8995</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>0.8955</v>
+        <v>0.8983</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>49</v>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.9064</v>
+        <v>0.9024</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0.9391</v>
+        <v>0.9474</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.9224</v>
+        <v>0.9243</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.8798</v>
+        <v>0.8933</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.8214</v>
+        <v>0.8112</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.8496</v>
+        <v>0.8503</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.8977</v>
+        <v>0.8995</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0.8931</v>
+        <v>0.8978</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.8802</v>
+        <v>0.8793</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.886</v>
+        <v>0.8873</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>0.897</v>
+        <v>0.8992</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>0.8977</v>
+        <v>0.8995</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>0.8968</v>
+        <v>0.8983</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D13" s="0" t="n">
-        <v>0.9019</v>
+        <v>0.9045</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.9418</v>
+        <v>0.9446</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.9214</v>
+        <v>0.9241</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.8833</v>
+        <v>0.8889</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.8112</v>
+        <v>0.8163</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.8457</v>
+        <v>0.8511</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.8959</v>
+        <v>0.8995</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.8926</v>
+        <v>0.8967</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.8765</v>
+        <v>0.8805</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.8836</v>
+        <v>0.8876</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.8953</v>
+        <v>0.899</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>0.8959</v>
+        <v>0.8995</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>0.8948</v>
+        <v>0.8984</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D14" s="0" t="n">
-        <v>0.8932</v>
+        <v>0.9133</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.9501</v>
+        <v>0.9335</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.9208</v>
+        <v>0.9233</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.896</v>
+        <v>0.8723</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.7908</v>
+        <v>0.8367</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.8401</v>
+        <v>0.8542</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.8941</v>
+        <v>0.8995</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.8946</v>
+        <v>0.8928</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.8705</v>
+        <v>0.8851</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.8805</v>
+        <v>0.8887</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.8942</v>
+        <v>0.8989</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>0.8941</v>
+        <v>0.8995</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>0.8924</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D15" s="0" t="n">
-        <v>0.9144</v>
+        <v>0.9088</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.9169</v>
+        <v>0.9391</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.9156</v>
+        <v>0.9237</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.8462</v>
+        <v>0.8804</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.8418</v>
+        <v>0.8265</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.844</v>
+        <v>0.8526</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.8905</v>
+        <v>0.8995</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.8803</v>
+        <v>0.8946</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.8794</v>
+        <v>0.8828</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.8798</v>
+        <v>0.8882</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.8904</v>
+        <v>0.8988</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>0.8905</v>
+        <v>0.8995</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>0.8904</v>
+        <v>0.8987</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.895</v>
+        <v>0.9045</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0.9446</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.9191</v>
+        <v>0.9241</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.8864</v>
+        <v>0.8889</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.7959</v>
+        <v>0.8163</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.8387</v>
+        <v>0.8511</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.8923</v>
+        <v>0.8995</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.8907</v>
+        <v>0.8967</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.8703</v>
+        <v>0.8805</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.8789</v>
+        <v>0.8876</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.892</v>
+        <v>0.899</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>0.8923</v>
+        <v>0.8995</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>0.8908</v>
+        <v>0.8984</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.9598</v>
+        <v>0.9246</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.8587</v>
+        <v>0.9169</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.9064</v>
+        <v>0.9207</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.7821</v>
+        <v>0.8492</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.9337</v>
+        <v>0.8622</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.8512</v>
+        <v>0.8557</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0.8851</v>
+        <v>0.8977</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0.8709</v>
+        <v>0.8869</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.8962</v>
+        <v>0.8896</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.8788</v>
+        <v>0.8882</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.8972</v>
+        <v>0.8981</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>0.8851</v>
+        <v>0.8977</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>0.887</v>
+        <v>0.8978</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.8909</v>
+        <v>0.9318</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.9501</v>
+        <v>0.9086</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.9196</v>
+        <v>0.9201</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.8953</v>
+        <v>0.839</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.7857</v>
+        <v>0.8776</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0.837</v>
+        <v>0.8579</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0.8923</v>
+        <v>0.8977</v>
       </c>
       <c r="M18" s="0" t="n">
+        <v>0.8854</v>
+      </c>
+      <c r="N18" s="0" t="n">
         <v>0.8931</v>
       </c>
-      <c r="N18" s="0" t="n">
-        <v>0.8679</v>
-      </c>
       <c r="O18" s="0" t="n">
-        <v>0.8783</v>
+        <v>0.889</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>0.8925</v>
+        <v>0.8992</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>0.8923</v>
+        <v>0.8977</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>0.8905</v>
+        <v>0.8982</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.8947</v>
+        <v>0.9043</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0.9418</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.9177</v>
+        <v>0.9227</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.8814</v>
+        <v>0.884</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.7959</v>
+        <v>0.8163</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.8365</v>
+        <v>0.8488</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0.8905</v>
+        <v>0.8977</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>0.888</v>
+        <v>0.8941</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.8689</v>
+        <v>0.8791</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.8771</v>
+        <v>0.8857</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>0.89</v>
+        <v>0.8971</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>0.8905</v>
+        <v>0.8977</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>0.8891</v>
+        <v>0.8967</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.8945</v>
-      </c>
-      <c r="E20" s="6" t="n">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.9064</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <v>0.9391</v>
       </c>
-      <c r="F20" s="6" t="n">
-        <v>0.9162</v>
-      </c>
-      <c r="G20" s="6" t="n">
+      <c r="F20" s="0" t="n">
+        <v>0.9224</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>361</v>
       </c>
-      <c r="H20" s="6" t="n">
-        <v>0.8764</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>0.7959</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>0.8342</v>
-      </c>
-      <c r="K20" s="6" t="n">
+      <c r="H20" s="0" t="n">
+        <v>0.8798</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.8214</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.8496</v>
+      </c>
+      <c r="K20" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="L20" s="6" t="n">
-        <v>0.8887</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>0.8854</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>0.8675</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>0.8752</v>
+      <c r="L20" s="0" t="n">
+        <v>0.8977</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0.8931</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.8802</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.886</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>0.8881</v>
+        <v>0.897</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>0.8887</v>
+        <v>0.8977</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>0.8874</v>
+        <v>0.8968</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.9005</v>
+        <v>0.9106</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0.928</v>
+        <v>0.9307</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.9141</v>
+        <v>0.9205</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.8595</v>
+        <v>0.867</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.8112</v>
+        <v>0.8316</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.8346</v>
+        <v>0.849</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>0.8869</v>
+        <v>0.8959</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>0.88</v>
+        <v>0.8888</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.8696</v>
+        <v>0.8812</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0.8743</v>
+        <v>0.8848</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>0.8861</v>
+        <v>0.8952</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>0.8869</v>
+        <v>0.8959</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>0.8861</v>
+        <v>0.8954</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>78</v>
+      <c r="A22" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0.8788</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0.964</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0.9194</v>
-      </c>
-      <c r="G22" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.9548</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0.8781</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.9149</v>
+      </c>
+      <c r="G22" s="3" t="n">
         <v>361</v>
       </c>
-      <c r="H22" s="0" t="n">
-        <v>0.9193</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0.7551</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0.8291</v>
-      </c>
-      <c r="K22" s="0" t="n">
+      <c r="H22" s="3" t="n">
+        <v>0.8044</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>0.9235</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>0.8599</v>
+      </c>
+      <c r="K22" s="3" t="n">
         <v>196</v>
       </c>
-      <c r="L22" s="0" t="n">
-        <v>0.8905</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>0.899</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>0.8595</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>0.8743</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>0.893</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>0.8905</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>0.8876</v>
+      <c r="L22" s="3" t="n">
+        <v>0.8941</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>0.8796</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>0.9008</v>
+      </c>
+      <c r="O22" s="3" t="n">
+        <v>0.8874</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>0.9019</v>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>0.8941</v>
+      </c>
+      <c r="R22" s="3" t="n">
+        <v>0.8955</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.8785</v>
+        <v>0.9242</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0.9612</v>
+        <v>0.9114</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.918</v>
+        <v>0.9177</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.9136</v>
+        <v>0.8408</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.7551</v>
+        <v>0.8622</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.8268</v>
+        <v>0.8514</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0.8887</v>
+        <v>0.8941</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>0.896</v>
+        <v>0.8825</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.8582</v>
+        <v>0.8868</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0.8724</v>
+        <v>0.8845</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>0.8908</v>
+        <v>0.8948</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>0.8887</v>
+        <v>0.8941</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>0.8859</v>
+        <v>0.8944</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D24" s="0" t="n">
-        <v>0.8785</v>
+        <v>0.9144</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>0.9612</v>
+        <v>0.9169</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0.918</v>
+        <v>0.9156</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.9136</v>
+        <v>0.8462</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.7551</v>
+        <v>0.8418</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.8268</v>
+        <v>0.844</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0.8887</v>
+        <v>0.8905</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>0.896</v>
+        <v>0.8803</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.8582</v>
+        <v>0.8794</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.8724</v>
+        <v>0.8798</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0.8908</v>
+        <v>0.8904</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>0.8887</v>
+        <v>0.8905</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>0.8859</v>
+        <v>0.8904</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D25" s="0" t="n">
-        <v>0.8747</v>
+        <v>0.8788</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0.9668</v>
+        <v>0.964</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0.9184</v>
+        <v>0.9194</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>361</v>
       </c>
-      <c r="H25" s="8" t="n">
-        <v>0.9241</v>
+      <c r="H25" s="0" t="n">
+        <v>0.9193</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.7449</v>
+        <v>0.7551</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.8249</v>
+        <v>0.8291</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0.8887</v>
+        <v>0.8905</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>0.8994</v>
+        <v>0.899</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.8558</v>
+        <v>0.8595</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0.8716</v>
+        <v>0.8743</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>0.8921</v>
+        <v>0.893</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>0.8887</v>
+        <v>0.8905</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>0.8855</v>
+        <v>0.8876</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0.8747</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0.9668</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0.9184</v>
-      </c>
-      <c r="G26" s="0" t="n">
+      <c r="D26" s="3" t="n">
+        <v>0.9308</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0.8947</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0.9124</v>
+      </c>
+      <c r="G26" s="3" t="n">
         <v>361</v>
       </c>
-      <c r="H26" s="8" t="n">
-        <v>0.9241</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>0.7449</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>0.8249</v>
-      </c>
-      <c r="K26" s="0" t="n">
+      <c r="H26" s="3" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>0.8776</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>0.8473</v>
+      </c>
+      <c r="K26" s="3" t="n">
         <v>196</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="3" t="n">
         <v>0.8887</v>
       </c>
-      <c r="M26" s="0" t="n">
-        <v>0.8994</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>0.8558</v>
-      </c>
-      <c r="O26" s="0" t="n">
-        <v>0.8716</v>
-      </c>
-      <c r="P26" s="0" t="n">
-        <v>0.8921</v>
-      </c>
-      <c r="Q26" s="0" t="n">
+      <c r="M26" s="3" t="n">
+        <v>0.8749</v>
+      </c>
+      <c r="N26" s="3" t="n">
+        <v>0.8861</v>
+      </c>
+      <c r="O26" s="3" t="n">
+        <v>0.8799</v>
+      </c>
+      <c r="P26" s="3" t="n">
+        <v>0.8915</v>
+      </c>
+      <c r="Q26" s="3" t="n">
         <v>0.8887</v>
       </c>
-      <c r="R26" s="0" t="n">
-        <v>0.8855</v>
+      <c r="R26" s="3" t="n">
+        <v>0.8895</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>0.8703</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0.9668</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0.916</v>
-      </c>
-      <c r="G27" s="0" t="n">
+      <c r="D27" s="3" t="n">
+        <v>0.8945</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0.9391</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0.9162</v>
+      </c>
+      <c r="G27" s="3" t="n">
         <v>361</v>
       </c>
-      <c r="H27" s="8" t="n">
-        <v>0.9231</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>0.7347</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>0.8182</v>
-      </c>
-      <c r="K27" s="0" t="n">
+      <c r="H27" s="3" t="n">
+        <v>0.8764</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>0.7959</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>0.8342</v>
+      </c>
+      <c r="K27" s="3" t="n">
         <v>196</v>
       </c>
-      <c r="L27" s="0" t="n">
-        <v>0.8851</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>0.8967</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>0.8507</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>0.8671</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>0.8889</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>0.8851</v>
-      </c>
-      <c r="R27" s="0" t="n">
-        <v>0.8816</v>
+      <c r="L27" s="3" t="n">
+        <v>0.8887</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>0.8854</v>
+      </c>
+      <c r="N27" s="3" t="n">
+        <v>0.8675</v>
+      </c>
+      <c r="O27" s="3" t="n">
+        <v>0.8752</v>
+      </c>
+      <c r="P27" s="3" t="n">
+        <v>0.8881</v>
+      </c>
+      <c r="Q27" s="3" t="n">
+        <v>0.8887</v>
+      </c>
+      <c r="R27" s="3" t="n">
+        <v>0.8874</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>90</v>
+      <c r="B28" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.8703</v>
+        <v>0.8785</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.9668</v>
+        <v>0.9612</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.916</v>
+        <v>0.918</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>361</v>
       </c>
-      <c r="H28" s="8" t="n">
-        <v>0.9231</v>
+      <c r="H28" s="0" t="n">
+        <v>0.9136</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.7347</v>
+        <v>0.7551</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.8182</v>
+        <v>0.8268</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>0.8851</v>
+        <v>0.8887</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>0.8967</v>
+        <v>0.896</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>0.8507</v>
+        <v>0.8582</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0.8671</v>
+        <v>0.8724</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>0.8889</v>
+        <v>0.8908</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>0.8851</v>
+        <v>0.8887</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>0.8816</v>
+        <v>0.8859</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D29" s="0" t="n">
-        <v>0.9104</v>
+        <v>0.8785</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.9003</v>
+        <v>0.9612</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.9053</v>
+        <v>0.918</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.82</v>
+        <v>0.9136</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.8367</v>
+        <v>0.7551</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.8283</v>
+        <v>0.8268</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0.8779</v>
+        <v>0.8887</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>0.8652</v>
+        <v>0.896</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.8685</v>
+        <v>0.8582</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.8668</v>
+        <v>0.8724</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>0.8786</v>
+        <v>0.8908</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>0.8779</v>
+        <v>0.8887</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>0.8782</v>
+        <v>0.8859</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.9122</v>
+        <v>0.9515</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.892</v>
+        <v>0.8698</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.902</v>
+        <v>0.9088</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>361</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.8088</v>
+        <v>0.793</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.8418</v>
+        <v>0.9184</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.825</v>
+        <v>0.8511</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>196</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0.8743</v>
+        <v>0.8869</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>0.8605</v>
+        <v>0.8722</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.8669</v>
+        <v>0.8941</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.8635</v>
+        <v>0.8799</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>0.8758</v>
+        <v>0.8957</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>0.8743</v>
+        <v>0.8869</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>0.8749</v>
+        <v>0.8885</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.9483</v>
+        <v>0.9104</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.7453</v>
+        <v>0.9003</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.8346</v>
+        <v>0.9053</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.6479</v>
+        <v>0.82</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0.9202</v>
+        <v>0.8367</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0.7604</v>
+        <v>0.8283</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0.8043</v>
+        <v>0.8779</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>0.7981</v>
+        <v>0.8652</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>0.8327</v>
+        <v>0.8685</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0.7975</v>
+        <v>0.8668</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>0.8469</v>
+        <v>0.8786</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>0.8043</v>
+        <v>0.8779</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>0.8096</v>
+        <v>0.8782</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1</v>
+        <v>0.9122</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.6883</v>
+        <v>0.892</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.8154</v>
+        <v>0.902</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.6205</v>
-      </c>
-      <c r="I32" s="5" t="n">
-        <v>1</v>
+        <v>0.8088</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.8418</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.7658</v>
+        <v>0.825</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>0.7935</v>
+        <v>0.8743</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>0.8102</v>
+        <v>0.8605</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>0.8442</v>
+        <v>0.8669</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>0.7906</v>
+        <v>0.8635</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>0.8719</v>
+        <v>0.8758</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>0.7935</v>
+        <v>0.8743</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>0.7987</v>
+        <v>0.8749</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.9522</v>
+        <v>0.9589</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0.7019</v>
+        <v>0.8393</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.8081</v>
+        <v>0.8951</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.614</v>
+        <v>0.7593</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0.9309</v>
+        <v>0.9337</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.74</v>
+        <v>0.8375</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>0.7792</v>
+        <v>0.8725</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>0.7831</v>
+        <v>0.8591</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.8164</v>
+        <v>0.8865</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0.774</v>
+        <v>0.8663</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>0.8381</v>
+        <v>0.8887</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>0.7792</v>
+        <v>0.8725</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>0.7851</v>
+        <v>0.8749</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.9133</v>
+        <v>0.914</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>0.7425</v>
+        <v>0.8837</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0.8191</v>
+        <v>0.8986</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.6304</v>
+        <v>0.7981</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.8617</v>
+        <v>0.8469</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.7281</v>
+        <v>0.8218</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0.7828</v>
+        <v>0.8707</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>0.7718</v>
+        <v>0.8561</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.8021</v>
+        <v>0.8653</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0.7736</v>
+        <v>0.8602</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>0.8178</v>
+        <v>0.8732</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>0.7828</v>
+        <v>0.8707</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>0.7884</v>
+        <v>0.8716</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.9357</v>
+        <v>0.9483</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>0.71</v>
+        <v>0.7453</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0.8074</v>
+        <v>0.8346</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>369</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.6137</v>
+        <v>0.6479</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.9043</v>
+        <v>0.9202</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.7312</v>
+        <v>0.7604</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>188</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0.7756</v>
+        <v>0.8043</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>0.7747</v>
+        <v>0.7981</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.8071</v>
+        <v>0.8327</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.7693</v>
+        <v>0.7975</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>0.827</v>
+        <v>0.8469</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>0.7756</v>
+        <v>0.8043</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>0.7817</v>
+        <v>0.8096</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.9878</v>
+        <v>1</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>0.6558</v>
+        <v>0.6883</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0.7883</v>
+        <v>0.8154</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>369</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.5929</v>
+        <v>0.6205</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0.984</v>
+        <v>1</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.74</v>
+        <v>0.7658</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>188</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0.7666</v>
+        <v>0.7935</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0.7904</v>
+        <v>0.8102</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>0.8199</v>
+        <v>0.8442</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0.7641</v>
+        <v>0.7906</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>0.8545</v>
+        <v>0.8719</v>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>0.7666</v>
+        <v>0.7935</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>0.772</v>
+        <v>0.7987</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.9027</v>
+        <v>0.9133</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>0.729</v>
+        <v>0.7425</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0.8066</v>
+        <v>0.8191</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>369</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.6139</v>
+        <v>0.6304</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.8457</v>
+        <v>0.8617</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.7114</v>
+        <v>0.7281</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>188</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0.7684</v>
+        <v>0.7828</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>0.7583</v>
+        <v>0.7718</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.7874</v>
+        <v>0.8021</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.759</v>
+        <v>0.7736</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0.8052</v>
+        <v>0.8178</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>0.7684</v>
+        <v>0.7828</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>0.7745</v>
+        <v>0.7884</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.9352</v>
+        <v>0.9522</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>0.626</v>
+        <v>0.7019</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.75</v>
+        <v>0.8081</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>369</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.5548</v>
+        <v>0.614</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0.9149</v>
+        <v>0.9309</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.6908</v>
+        <v>0.74</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>188</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0.7235</v>
+        <v>0.7792</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0.745</v>
+        <v>0.7831</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>0.7705</v>
+        <v>0.8164</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0.7204</v>
+        <v>0.774</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>0.8068</v>
+        <v>0.8381</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>0.7235</v>
+        <v>0.7792</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>0.73</v>
+        <v>0.7851</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.8653</v>
+        <v>0.9357</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>0.6965</v>
+        <v>0.71</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0.7718</v>
+        <v>0.8074</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>369</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.5692</v>
+        <v>0.6137</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0.7872</v>
+        <v>0.9043</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.6607</v>
+        <v>0.7312</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>188</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0.7271</v>
+        <v>0.7756</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>0.7173</v>
+        <v>0.7747</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.7419</v>
+        <v>0.8071</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.7162</v>
+        <v>0.7693</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>0.7654</v>
+        <v>0.827</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>0.7271</v>
+        <v>0.7756</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>0.7343</v>
+        <v>0.7817</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.8635</v>
+        <v>0.9027</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0.6856</v>
+        <v>0.729</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.7644</v>
+        <v>0.8066</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>369</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.5606</v>
+        <v>0.6139</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.7872</v>
+        <v>0.8457</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.6549</v>
+        <v>0.7114</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>188</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0.7199</v>
+        <v>0.7684</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>0.712</v>
+        <v>0.7583</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.7364</v>
+        <v>0.7874</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.7096</v>
+        <v>0.759</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>0.7613</v>
+        <v>0.8052</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>0.7199</v>
+        <v>0.7684</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>0.7274</v>
+        <v>0.7745</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.9905</v>
+        <v>0.9878</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>0.5637</v>
+        <v>0.6558</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.7185</v>
+        <v>0.7883</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>369</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.536</v>
+        <v>0.5929</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>0.9894</v>
+        <v>0.984</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.6953</v>
+        <v>0.74</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>188</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>0.7074</v>
+        <v>0.7666</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>0.7632</v>
+        <v>0.7904</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>0.7765</v>
+        <v>0.8199</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0.7069</v>
+        <v>0.7641</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>0.8371</v>
+        <v>0.8545</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>0.7074</v>
+        <v>0.7666</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>0.7107</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.9455</v>
+        <v>0.8653</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>0.5637</v>
+        <v>0.6965</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.7063</v>
+        <v>0.7718</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>369</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.5223</v>
+        <v>0.5692</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0.9362</v>
+        <v>0.7872</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.6705</v>
+        <v>0.6607</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>188</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0.6894</v>
+        <v>0.7271</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>0.7339</v>
+        <v>0.7173</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>0.7499</v>
+        <v>0.7419</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>0.6884</v>
+        <v>0.7162</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>0.8026</v>
+        <v>0.7654</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>0.6894</v>
+        <v>0.7271</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>0.6942</v>
+        <v>0.7343</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="6" t="n">
-        <v>0.9388</v>
-      </c>
-      <c r="E43" s="6" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="F43" s="6" t="n">
-        <v>0.6513</v>
-      </c>
-      <c r="G43" s="6" t="n">
+      <c r="D43" s="0" t="n">
+        <v>0.9352</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G43" s="0" t="n">
         <v>369</v>
       </c>
-      <c r="H43" s="6" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="I43" s="6" t="n">
-        <v>0.9362</v>
-      </c>
-      <c r="J43" s="6" t="n">
-        <v>0.6412</v>
-      </c>
-      <c r="K43" s="6" t="n">
+      <c r="H43" s="0" t="n">
+        <v>0.5548</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.9149</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0.6908</v>
+      </c>
+      <c r="K43" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="L43" s="6" t="n">
-        <v>0.6463</v>
-      </c>
-      <c r="M43" s="6" t="n">
-        <v>0.7132</v>
-      </c>
-      <c r="N43" s="6" t="n">
-        <v>0.7174</v>
-      </c>
-      <c r="O43" s="6" t="n">
-        <v>0.6462</v>
+      <c r="L43" s="0" t="n">
+        <v>0.7235</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.7705</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.7204</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>0.7865</v>
+        <v>0.8068</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>0.6463</v>
+        <v>0.7235</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>0.6479</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.7754</v>
+        <v>0.8635</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>0.5989</v>
+        <v>0.6856</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.6758</v>
+        <v>0.7644</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>369</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.4559</v>
+        <v>0.5606</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0.6596</v>
+        <v>0.7872</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.5391</v>
+        <v>0.6549</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>188</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>0.6194</v>
+        <v>0.7199</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>0.6157</v>
+        <v>0.712</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>0.6292</v>
+        <v>0.7364</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0.6075</v>
+        <v>0.7096</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>0.6676</v>
+        <v>0.7613</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>0.6194</v>
+        <v>0.7199</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>0.6297</v>
+        <v>0.7274</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.7483</v>
+        <v>0.9905</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>0.5962</v>
+        <v>0.5637</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0.6637</v>
+        <v>0.7185</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>369</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.4335</v>
+        <v>0.536</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.6064</v>
+        <v>0.9894</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.5055</v>
+        <v>0.6953</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>188</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>0.5996</v>
+        <v>0.7074</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>0.5909</v>
+        <v>0.7632</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>0.6013</v>
+        <v>0.7765</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>0.5846</v>
+        <v>0.7069</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>0.642</v>
+        <v>0.8371</v>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>0.5996</v>
+        <v>0.7074</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>0.6103</v>
+        <v>0.7107</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.7509</v>
+        <v>0.9455</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>0.5881</v>
+        <v>0.5637</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.6596</v>
+        <v>0.7063</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>369</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.4328</v>
+        <v>0.5223</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>0.617</v>
+        <v>0.9362</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.5088</v>
+        <v>0.6705</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>188</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>0.5978</v>
+        <v>0.6894</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>0.5919</v>
+        <v>0.7339</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>0.6025</v>
+        <v>0.7499</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0.5842</v>
+        <v>0.6884</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>0.6435</v>
+        <v>0.8026</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>0.5978</v>
+        <v>0.6894</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>0.6087</v>
+        <v>0.6942</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="3" t="n">
+        <v>0.9388</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>0.6513</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>369</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>0.9362</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>0.6412</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>188</v>
+      </c>
+      <c r="L47" s="3" t="n">
+        <v>0.6463</v>
+      </c>
+      <c r="M47" s="3" t="n">
+        <v>0.7132</v>
+      </c>
+      <c r="N47" s="3" t="n">
+        <v>0.7174</v>
+      </c>
+      <c r="O47" s="3" t="n">
+        <v>0.6462</v>
+      </c>
+      <c r="P47" s="3" t="n">
+        <v>0.7865</v>
+      </c>
+      <c r="Q47" s="3" t="n">
+        <v>0.6463</v>
+      </c>
+      <c r="R47" s="3" t="n">
+        <v>0.6479</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0.7754</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.5989</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.6758</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0.4559</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.6596</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0.5391</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>0.6194</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>0.6292</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>0.6075</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>0.6676</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>0.6194</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>0.6297</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0.7483</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.5962</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.6637</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0.4335</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.6064</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>0.5055</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>0.6013</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>0.5846</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>0.6103</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.7509</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0.5881</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.6596</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0.4328</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0.5088</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>0.5919</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>0.6025</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>0.5842</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>0.6435</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>0.6087</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="0" t="n">
         <v>0.7345</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E51" s="0" t="n">
         <v>0.5474</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F51" s="0" t="n">
         <v>0.6273</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G51" s="0" t="n">
         <v>369</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H51" s="0" t="n">
         <v>0.4078</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="I51" s="0" t="n">
         <v>0.6117</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J51" s="0" t="n">
         <v>0.4894</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="K51" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="L47" s="0" t="n">
+      <c r="L51" s="0" t="n">
         <v>0.5691</v>
       </c>
-      <c r="M47" s="0" t="n">
+      <c r="M51" s="0" t="n">
         <v>0.5712</v>
       </c>
-      <c r="N47" s="0" t="n">
+      <c r="N51" s="0" t="n">
         <v>0.5796</v>
       </c>
-      <c r="O47" s="0" t="n">
+      <c r="O51" s="0" t="n">
         <v>0.5583</v>
       </c>
-      <c r="P47" s="0" t="n">
+      <c r="P51" s="0" t="n">
         <v>0.6243</v>
       </c>
-      <c r="Q47" s="0" t="n">
+      <c r="Q51" s="0" t="n">
         <v>0.5691</v>
       </c>
-      <c r="R47" s="0" t="n">
+      <c r="R51" s="0" t="n">
         <v>0.5808</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R47">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-    <filterColumn colId="15" hiddenButton="1"/>
-    <filterColumn colId="16" hiddenButton="1"/>
-    <filterColumn colId="17" hiddenButton="1"/>
-  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4689,6 +5143,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>